--- a/Hardware/DML Instruction Set.xlsx
+++ b/Hardware/DML Instruction Set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adasneves/Desktop/Desktop - Alex’s MacBook Pro/AlexComputer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adasn\AlexComputer\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B442EF1-C387-844A-889E-2D5DEDC1FBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F66107-AF3C-470D-92FD-F2C449C0878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B6D2BF9C-4E37-3844-99B7-7166C532CA73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6D2BF9C-4E37-3844-99B7-7166C532CA73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>LOW NIBBLE</t>
   </si>
@@ -145,33 +145,12 @@
     <t>SUB Y (IMM)</t>
   </si>
   <si>
-    <t>INC (REG)</t>
-  </si>
-  <si>
     <t>INC (MEM)</t>
   </si>
   <si>
-    <t>SUB (REG)</t>
-  </si>
-  <si>
-    <t>ADD (REG)</t>
-  </si>
-  <si>
-    <t>DEC (REG)</t>
-  </si>
-  <si>
     <t>DEC (MEM)</t>
   </si>
   <si>
-    <t>TRANS (REG) (REG)</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
-    <t>PSH</t>
-  </si>
-  <si>
     <t>LDA (MEM)</t>
   </si>
   <si>
@@ -317,13 +296,109 @@
   </si>
   <si>
     <t>Instructions which are surrounded by parenthesis are valid assembly commands, however, when assembled, they will be converted into the lowest register first. If both registers are the same, then the command will removed, and the next branch statement will be converted into its respective JSR or JMP command.</t>
+  </si>
+  <si>
+    <t>PSH A</t>
+  </si>
+  <si>
+    <t>PSH B</t>
+  </si>
+  <si>
+    <t>PSH X</t>
+  </si>
+  <si>
+    <t>PSH Y</t>
+  </si>
+  <si>
+    <t>POP A</t>
+  </si>
+  <si>
+    <t>POP B</t>
+  </si>
+  <si>
+    <t>POP X</t>
+  </si>
+  <si>
+    <t>POP Y</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>TAY</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>TBX</t>
+  </si>
+  <si>
+    <t>TBY</t>
+  </si>
+  <si>
+    <t>TXA</t>
+  </si>
+  <si>
+    <t>TXB</t>
+  </si>
+  <si>
+    <t>TXY</t>
+  </si>
+  <si>
+    <t>TYA</t>
+  </si>
+  <si>
+    <t>TYB</t>
+  </si>
+  <si>
+    <t>TYX</t>
+  </si>
+  <si>
+    <t>ADD A A</t>
+  </si>
+  <si>
+    <t>ADD B A</t>
+  </si>
+  <si>
+    <t>ADD B B</t>
+  </si>
+  <si>
+    <t>SUB A A</t>
+  </si>
+  <si>
+    <t>ADD X Y</t>
+  </si>
+  <si>
+    <t>SUB X Y</t>
+  </si>
+  <si>
+    <t>SUB B A</t>
+  </si>
+  <si>
+    <t>SUB B B</t>
+  </si>
+  <si>
+    <t>INC A</t>
+  </si>
+  <si>
+    <t>INC B</t>
+  </si>
+  <si>
+    <t>INC X</t>
+  </si>
+  <si>
+    <t>INC Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,13 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF959595"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -359,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,12 +472,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3BC71B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF98FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,12 +496,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,6 +503,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD09AEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9AFED8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDB18F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBD692"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9E9DC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,9 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,9 +762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,43 +782,37 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,7 +825,10 @@
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -748,21 +849,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,10 +917,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC9E9DC"/>
+      <color rgb="FFEEB9F9"/>
+      <color rgb="FFCBD692"/>
+      <color rgb="FFEDB18F"/>
+      <color rgb="FF9AFED8"/>
+      <color rgb="FF98FFFF"/>
       <color rgb="FFD09AEA"/>
       <color rgb="FF9944ED"/>
-      <color rgb="FFEDB18F"/>
-      <color rgb="FF98FFFF"/>
       <color rgb="FF3BC71B"/>
     </mruColors>
   </colors>
@@ -1093,40 +1242,40 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="7" customWidth="1"/>
-    <col min="3" max="18" width="15.83203125" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" hidden="1"/>
+    <col min="2" max="2" width="6.875" style="7" customWidth="1"/>
+    <col min="3" max="18" width="15.875" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="49"/>
-    </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46"/>
+    </row>
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="4" t="s">
@@ -1178,560 +1327,695 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>CONCATENATE("_","0")</f>
         <v>_0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>69</v>
+      <c r="I3" s="26"/>
+      <c r="J3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="36" t="str">
+    <row r="4" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="33" t="str">
         <f>CONCATENATE("_","1")</f>
         <v>_1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="65" t="str">
+        <f>CONCATENATE(LEFT(G3,4), RIGHT($P4, 3))</f>
+        <v>ADD A B</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>53</v>
+      <c r="I4" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="66" t="str">
+        <f>CONCATENATE(LEFT(L3,4), RIGHT($P4, 3))</f>
+        <v>SUB A B</v>
+      </c>
+      <c r="M4" s="67"/>
+      <c r="N4" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="Q4" s="14"/>
-      <c r="R4" s="29"/>
-    </row>
-    <row r="5" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="R4" s="26"/>
+    </row>
+    <row r="5" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
       <c r="B5" s="2" t="str">
         <f>CONCATENATE("_","2")</f>
         <v>_2</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="32"/>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="65" t="str">
+        <f t="shared" ref="G5:G18" si="0">CONCATENATE(LEFT(G4,4), RIGHT(P5, 3))</f>
+        <v>ADD A X</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="66" t="str">
+        <f t="shared" ref="L5:L18" si="1">CONCATENATE(LEFT(L4,4), RIGHT($P5, 3))</f>
+        <v>SUB A X</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="29"/>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="36" t="str">
+    <row r="6" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="63" t="str">
         <f>CONCATENATE("_","3")</f>
         <v>_3</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="13"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="16" t="s">
-        <v>55</v>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>ADD A Y</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>SUB A Y</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="Q6" s="13"/>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="str">
         <f>CONCATENATE("_","4")</f>
         <v>_4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>70</v>
+      <c r="C7" s="34"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="70" t="str">
+        <f>CONCATENATE("DEC ", RIGHT(K3, 1))</f>
+        <v>DEC A</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="62"/>
+      <c r="P7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="R7" s="14"/>
     </row>
-    <row r="8" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="36" t="str">
+    <row r="8" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="33" t="str">
         <f>CONCATENATE("_","5")</f>
         <v>_5</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="E8" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>61</v>
+      <c r="C8" s="14"/>
+      <c r="E8" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="70" t="str">
+        <f t="shared" ref="K8:K10" si="2">CONCATENATE("DEC ", RIGHT(K4, 1))</f>
+        <v>DEC B</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="42"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="Q8" s="14"/>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
       <c r="B9" s="2" t="str">
         <f>CONCATENATE("_","6")</f>
         <v>_6</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="E9" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="29"/>
+      <c r="C9" s="26"/>
+      <c r="E9" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>ADD B X</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>99</v>
+      </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="32"/>
+      <c r="K9" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v>DEC X</v>
+      </c>
+      <c r="L9" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>SUB B X</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="29"/>
       <c r="R9" s="14"/>
     </row>
-    <row r="10" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="36" t="str">
+    <row r="10" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="33" t="str">
         <f>CONCATENATE("_","7")</f>
         <v>_7</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="E10" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="K10" s="14"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>57</v>
+      <c r="C10" s="14"/>
+      <c r="E10" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>ADD B Y</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v>DEC Y</v>
+      </c>
+      <c r="L10" s="66" t="str">
+        <f t="shared" si="1"/>
+        <v>SUB B Y</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="Q10" s="13"/>
-      <c r="R10" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
       <c r="B11" s="2" t="str">
         <f>CONCATENATE("_","8")</f>
         <v>_8</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="E11" s="54" t="s">
+      <c r="C11" s="60"/>
+      <c r="E11" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="65" t="str">
+        <f>CONCATENATE(LEFT(G10,4), LEFT(RIGHT($P11, 4),3))</f>
+        <v>ADD X A</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="66" t="str">
+        <f>CONCATENATE(LEFT(L10,4), LEFT(RIGHT($P11, 4),3))</f>
+        <v>SUB X A</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="M11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="36" t="str">
+      <c r="O11" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="33" t="str">
         <f>CONCATENATE("_","9")</f>
         <v>_9</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="E12" s="54" t="s">
+      <c r="C12" s="61"/>
+      <c r="E12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="65" t="str">
+        <f t="shared" ref="G12:G18" si="3">CONCATENATE(LEFT(G11,4), LEFT(RIGHT($P12, 4),3))</f>
+        <v>ADD X B</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="66" t="str">
+        <f t="shared" ref="L12:L18" si="4">CONCATENATE(LEFT(L11,4), LEFT(RIGHT($P12, 4),3))</f>
+        <v>SUB X B</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="14"/>
-      <c r="M12" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>63</v>
+      <c r="O12" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="Q12" s="14"/>
-      <c r="R12" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="29"/>
+      <c r="C13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v>ADD X X</v>
+      </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="29"/>
-      <c r="M13" s="23" t="s">
+      <c r="K13" s="26"/>
+      <c r="L13" s="66" t="str">
+        <f t="shared" si="4"/>
+        <v>SUB X X</v>
+      </c>
+      <c r="M13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="27" t="s">
+      <c r="N13" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="Q14" s="13"/>
-      <c r="R14" s="37"/>
-    </row>
-    <row r="15" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+    </row>
+    <row r="15" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="29"/>
+      <c r="C15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v>ADD Y A</v>
+      </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="57" t="s">
+        <v>104</v>
+      </c>
       <c r="J15" s="14"/>
-      <c r="K15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="24" t="s">
+      <c r="K15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="66" t="str">
+        <f t="shared" si="4"/>
+        <v>SUB Y A</v>
+      </c>
+      <c r="M15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="16" t="s">
+      <c r="O15" s="26"/>
+      <c r="P15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="16" t="s">
+    </row>
+    <row r="16" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v>ADD Y B</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="24" t="s">
+      <c r="L16" s="66" t="str">
+        <f t="shared" si="4"/>
+        <v>SUB Y B</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="16" t="s">
-        <v>66</v>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="Q16" s="14"/>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v>ADD Y X</v>
+      </c>
       <c r="H17" s="14"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="57" t="s">
+        <v>106</v>
+      </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="24" t="s">
+      <c r="K17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="66" t="str">
+        <f t="shared" si="4"/>
+        <v>SUB Y X</v>
+      </c>
+      <c r="M17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="1:18" s="31" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="39" t="s">
+      <c r="O17" s="26"/>
+      <c r="P17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="1:18" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="M18" s="25" t="s">
+      <c r="C18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v>ADD Y Y</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="66" t="str">
+        <f t="shared" si="4"/>
+        <v>SUB Y Y</v>
+      </c>
+      <c r="M18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="17" t="s">
-        <v>68</v>
+      <c r="O18" s="14"/>
+      <c r="P18" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="Q18" s="13"/>
-      <c r="R18" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1740,5 +2024,6 @@
     <mergeCell ref="C19:R22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hardware/DML Instruction Set.xlsx
+++ b/Hardware/DML Instruction Set.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adasn\AlexComputer\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F66107-AF3C-470D-92FD-F2C449C0878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4BF366-FD00-4F7D-AE63-477DC4DF273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6D2BF9C-4E37-3844-99B7-7166C532CA73}"/>
+    <workbookView xWindow="9555" yWindow="5895" windowWidth="21600" windowHeight="11835" xr2:uid="{B6D2BF9C-4E37-3844-99B7-7166C532CA73}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DML Instruction Set" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>LOW NIBBLE</t>
   </si>
@@ -392,6 +392,21 @@
   </si>
   <si>
     <t>INC Y</t>
+  </si>
+  <si>
+    <t>CTN</t>
+  </si>
+  <si>
+    <t>STA (MEM)</t>
+  </si>
+  <si>
+    <t>STB (MEM)</t>
+  </si>
+  <si>
+    <t>STX (MEM)</t>
+  </si>
+  <si>
+    <t>STY (MEM)</t>
   </si>
 </sst>
 </file>
@@ -427,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,12 +536,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,16 +803,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,9 +828,6 @@
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,10 +881,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,19 +896,14 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,11 +1235,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B86D47-18B9-2344-8340-1A50B22B1121}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1256,24 +1253,24 @@
     <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="46"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -1328,7 +1325,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="str">
@@ -1340,10 +1337,7 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="61" t="s">
         <v>107</v>
       </c>
       <c r="H3" s="19" t="s">
@@ -1353,18 +1347,17 @@
       <c r="J3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="24" t="s">
-        <v>38</v>
+      <c r="O3" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>52</v>
@@ -1372,11 +1365,13 @@
       <c r="Q3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="14"/>
+      <c r="R3" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="33" t="str">
+      <c r="A4" s="45"/>
+      <c r="B4" s="32" t="str">
         <f>CONCATENATE("_","1")</f>
         <v>_1</v>
       </c>
@@ -1385,42 +1380,44 @@
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="65" t="str">
+      <c r="G4" s="61" t="str">
         <f>CONCATENATE(LEFT(G3,4), RIGHT($P4, 3))</f>
         <v>ADD A B</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="66" t="str">
+      <c r="L4" s="62" t="str">
         <f>CONCATENATE(LEFT(L3,4), RIGHT($P4, 3))</f>
         <v>SUB A B</v>
       </c>
-      <c r="M4" s="67"/>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>39</v>
+      <c r="O4" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="26"/>
+      <c r="Q4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="2" t="str">
         <f>CONCATENATE("_","2")</f>
         <v>_2</v>
@@ -1431,40 +1428,43 @@
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="65" t="str">
-        <f t="shared" ref="G5:G18" si="0">CONCATENATE(LEFT(G4,4), RIGHT(P5, 3))</f>
+      <c r="G5" s="61" t="str">
+        <f t="shared" ref="G5:G10" si="0">CONCATENATE(LEFT(G4,4), RIGHT(P5, 3))</f>
         <v>ADD A X</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="69" t="s">
+      <c r="J5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="L5" s="66" t="str">
-        <f t="shared" ref="L5:L18" si="1">CONCATENATE(LEFT(L4,4), RIGHT($P5, 3))</f>
+      <c r="L5" s="62" t="str">
+        <f t="shared" ref="L5:L10" si="1">CONCATENATE(LEFT(L4,4), RIGHT($P5, 3))</f>
         <v>SUB A X</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>40</v>
+      <c r="O5" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="14"/>
+      <c r="Q5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="63" t="str">
+      <c r="A6" s="45"/>
+      <c r="B6" s="59" t="str">
         <f>CONCATENATE("_","3")</f>
         <v>_3</v>
       </c>
@@ -1473,296 +1473,295 @@
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="65" t="str">
+      <c r="G6" s="61" t="str">
         <f t="shared" si="0"/>
         <v>ADD A Y</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="69" t="s">
+      <c r="J6" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="66" t="str">
+      <c r="L6" s="62" t="str">
         <f t="shared" si="1"/>
         <v>SUB A Y</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>41</v>
+      <c r="O6" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="26"/>
+      <c r="Q6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="2" t="str">
         <f>CONCATENATE("_","4")</f>
         <v>_4</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="E7" s="26"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="61" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="70" t="str">
+      <c r="J7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="65" t="str">
         <f>CONCATENATE("DEC ", RIGHT(K3, 1))</f>
         <v>DEC A</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="26"/>
       <c r="N7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="62"/>
       <c r="P7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" s="14"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="24" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="33" t="str">
+      <c r="A8" s="45"/>
+      <c r="B8" s="32" t="str">
         <f>CONCATENATE("_","5")</f>
         <v>_5</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="40" t="s">
         <v>81</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="61" t="s">
         <v>109</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="30"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="70" t="str">
+      <c r="J8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="65" t="str">
         <f t="shared" ref="K8:K10" si="2">CONCATENATE("DEC ", RIGHT(K4, 1))</f>
         <v>DEC B</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="13"/>
       <c r="P8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="26"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="60" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2" t="str">
         <f>CONCATENATE("_","6")</f>
         <v>_6</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="40" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="30"/>
-      <c r="G9" s="65" t="str">
+      <c r="G9" s="61" t="str">
         <f t="shared" si="0"/>
         <v>ADD B X</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="70" t="str">
+      <c r="J9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="65" t="str">
         <f t="shared" si="2"/>
         <v>DEC X</v>
       </c>
-      <c r="L9" s="66" t="str">
+      <c r="L9" s="62" t="str">
         <f t="shared" si="1"/>
         <v>SUB B X</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="29"/>
+      <c r="N9" s="29"/>
       <c r="P9" s="15" t="s">
         <v>49</v>
       </c>
       <c r="Q9" s="29"/>
-      <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="33" t="str">
+      <c r="A10" s="45"/>
+      <c r="B10" s="32" t="str">
         <f>CONCATENATE("_","7")</f>
         <v>_7</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="40" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="26"/>
-      <c r="G10" s="65" t="str">
+      <c r="G10" s="61" t="str">
         <f t="shared" si="0"/>
         <v>ADD B Y</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="70" t="str">
+      <c r="K10" s="65" t="str">
         <f t="shared" si="2"/>
         <v>DEC Y</v>
       </c>
-      <c r="L10" s="66" t="str">
+      <c r="L10" s="62" t="str">
         <f t="shared" si="1"/>
         <v>SUB B Y</v>
       </c>
-      <c r="M10" s="30"/>
       <c r="N10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="13"/>
       <c r="P10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="2" t="str">
         <f>CONCATENATE("_","8")</f>
         <v>_8</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="E11" s="43" t="s">
+      <c r="C11" s="57"/>
+      <c r="E11" s="40" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="30"/>
-      <c r="G11" s="65" t="str">
+      <c r="G11" s="61" t="str">
         <f>CONCATENATE(LEFT(G10,4), LEFT(RIGHT($P11, 4),3))</f>
         <v>ADD X A</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="56" t="s">
         <v>101</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="66" t="str">
+      <c r="L11" s="62" t="str">
         <f>CONCATENATE(LEFT(L10,4), LEFT(RIGHT($P11, 4),3))</f>
         <v>SUB X A</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="54" t="s">
+      <c r="N11" s="51" t="s">
         <v>91</v>
-      </c>
-      <c r="O11" s="64" t="s">
-        <v>42</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="15" t="s">
-        <v>64</v>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="33" t="str">
+      <c r="A12" s="45"/>
+      <c r="B12" s="32" t="str">
         <f>CONCATENATE("_","9")</f>
         <v>_9</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="E12" s="43" t="s">
+      <c r="C12" s="58"/>
+      <c r="E12" s="40" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="26"/>
-      <c r="G12" s="65" t="str">
+      <c r="G12" s="61" t="str">
         <f t="shared" ref="G12:G18" si="3">CONCATENATE(LEFT(G11,4), LEFT(RIGHT($P12, 4),3))</f>
         <v>ADD X B</v>
       </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="55" t="s">
         <v>102</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="66" t="str">
+      <c r="L12" s="62" t="str">
         <f t="shared" ref="L12:L18" si="4">CONCATENATE(LEFT(L11,4), LEFT(RIGHT($P12, 4),3))</f>
         <v>SUB X B</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="51" t="s">
         <v>92</v>
-      </c>
-      <c r="O12" s="64" t="s">
-        <v>43</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="60" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="30"/>
-      <c r="G13" s="65" t="str">
+      <c r="G13" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ADD X X</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="56"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="66" t="str">
+      <c r="K13" s="29"/>
+      <c r="L13" s="62" t="str">
         <f t="shared" si="4"/>
         <v>SUB X X</v>
       </c>
       <c r="M13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="51" t="s">
         <v>93</v>
-      </c>
-      <c r="O13" s="64" t="s">
-        <v>44</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>57</v>
@@ -1770,35 +1769,30 @@
       <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="61" t="s">
         <v>111</v>
       </c>
       <c r="H14" s="26"/>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="54" t="s">
         <v>103</v>
       </c>
       <c r="J14" s="26"/>
-      <c r="K14" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="66" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="54" t="s">
+      <c r="N14" s="51" t="s">
         <v>94</v>
-      </c>
-      <c r="O14" s="64" t="s">
-        <v>45</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>51</v>
@@ -1806,216 +1800,215 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="65" t="str">
+      <c r="G15" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ADD Y A</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="54" t="s">
         <v>104</v>
       </c>
       <c r="J15" s="14"/>
-      <c r="K15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="66" t="str">
+      <c r="K15" s="29"/>
+      <c r="L15" s="62" t="str">
         <f t="shared" si="4"/>
         <v>SUB Y A</v>
       </c>
       <c r="M15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="26"/>
+      <c r="N15" s="29"/>
       <c r="P15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="15" t="s">
-        <v>65</v>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="65" t="str">
+      <c r="G16" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ADD Y B</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="54" t="s">
         <v>105</v>
       </c>
       <c r="J16" s="26"/>
-      <c r="K16" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="66" t="str">
+      <c r="K16" s="13"/>
+      <c r="L16" s="62" t="str">
         <f t="shared" si="4"/>
         <v>SUB Y B</v>
       </c>
       <c r="M16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="14"/>
+      <c r="N16" s="13"/>
       <c r="P16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="60" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="65" t="str">
+      <c r="G17" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ADD Y X</v>
       </c>
       <c r="H17" s="14"/>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="54" t="s">
         <v>106</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="66" t="str">
+      <c r="K17" s="26"/>
+      <c r="L17" s="62" t="str">
         <f t="shared" si="4"/>
         <v>SUB Y X</v>
       </c>
       <c r="M17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="26"/>
+      <c r="N17" s="29"/>
       <c r="P17" s="15" t="s">
         <v>60</v>
       </c>
       <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="1:18" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="65" t="str">
+      <c r="G18" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ADD Y Y</v>
       </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="55"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="66" t="str">
+      <c r="K18" s="66"/>
+      <c r="L18" s="62" t="str">
         <f t="shared" si="4"/>
         <v>SUB Y Y</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="14"/>
+      <c r="N18" s="13"/>
       <c r="P18" s="16" t="s">
         <v>61</v>
       </c>
       <c r="Q18" s="13"/>
+      <c r="R18" s="29"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="50" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Hardware/DML Instruction Set.xlsx
+++ b/Hardware/DML Instruction Set.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">H I G H  N I B B L E </t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t xml:space="preserve">TYX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX, Y (MEM)</t>
   </si>
   <si>
     <t xml:space="preserve">(CMP Y X)</t>
@@ -421,7 +424,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -442,17 +444,15 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,7 +534,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FF9DC3E6"/>
+        <bgColor rgb="FF729FCF"/>
       </patternFill>
     </fill>
     <fill>
@@ -589,6 +589,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF8FAADC"/>
       </patternFill>
     </fill>
     <fill>
@@ -730,7 +736,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -803,11 +809,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -827,7 +833,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -915,6 +921,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -931,7 +941,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -989,7 +999,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB7B3CA"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF2F2F2"/>
@@ -1047,10 +1057,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="P1048576" activeCellId="0" sqref="P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.87"/>
@@ -1058,7 +1068,7 @@
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="19" style="0" width="10.89"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -1190,7 +1200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12"/>
       <c r="B4" s="27" t="str">
         <f aca="false">CONCATENATE("_","1")</f>
@@ -1247,7 +1257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
       <c r="B5" s="33" t="str">
         <f aca="false">CONCATENATE("_","2")</f>
@@ -1301,7 +1311,7 @@
       </c>
       <c r="R5" s="29"/>
     </row>
-    <row r="6" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
       <c r="B6" s="36" t="str">
         <f aca="false">CONCATENATE("_","3")</f>
@@ -1355,7 +1365,7 @@
       </c>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
       <c r="B7" s="33" t="str">
         <f aca="false">CONCATENATE("_","4")</f>
@@ -1405,7 +1415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
       <c r="B8" s="27" t="str">
         <f aca="false">CONCATENATE("_","5")</f>
@@ -1448,7 +1458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="33" t="str">
         <f aca="false">CONCATENATE("_","6")</f>
@@ -1491,7 +1501,7 @@
       </c>
       <c r="Q9" s="29"/>
     </row>
-    <row r="10" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
       <c r="B10" s="27" t="str">
         <f aca="false">CONCATENATE("_","7")</f>
@@ -1533,7 +1543,7 @@
       </c>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
       <c r="B11" s="33" t="str">
         <f aca="false">CONCATENATE("_","8")</f>
@@ -1579,7 +1589,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
       <c r="B12" s="27" t="str">
         <f aca="false">CONCATENATE("_","9")</f>
@@ -1625,7 +1635,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
       <c r="B13" s="42" t="s">
         <v>98</v>
@@ -1661,7 +1671,7 @@
       </c>
       <c r="Q13" s="29"/>
     </row>
-    <row r="14" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
       <c r="B14" s="45" t="s">
         <v>101</v>
@@ -1697,7 +1707,7 @@
       </c>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="42" t="s">
         <v>107</v>
@@ -1742,7 +1752,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
       <c r="B16" s="45" t="s">
         <v>114</v>
@@ -1785,7 +1795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="11" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
       <c r="B17" s="42" t="s">
         <v>120</v>
@@ -1818,30 +1828,32 @@
         <v>AND Y X</v>
       </c>
       <c r="N17" s="0"/>
-      <c r="O17" s="20"/>
+      <c r="O17" s="46" t="s">
+        <v>123</v>
+      </c>
       <c r="P17" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="29"/>
     </row>
-    <row r="18" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="53" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="18" t="str">
         <f aca="false">_xlfn.CONCAT("OR ", RIGHT(K18, 3))</f>
         <v>OR Y Y</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="22" t="str">
         <f aca="false">CONCATENATE(LEFT(K17,4), LEFT(RIGHT($P18, 4),3))</f>
         <v>ADD Y Y</v>
@@ -1856,93 +1868,93 @@
       </c>
       <c r="N18" s="29"/>
       <c r="O18" s="0"/>
-      <c r="P18" s="51" t="s">
-        <v>126</v>
+      <c r="P18" s="52" t="s">
+        <v>127</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
